--- a/Documents/0. 일정표/프로젝트 일정표.xlsx
+++ b/Documents/0. 일정표/프로젝트 일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\공유\[10.30개강]AWS풀스택 공용폴더\98.팀프로젝트\02.2차 프로젝트\01.자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\0. 일정표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC406AB-B131-454A-9A80-ECD4AE100780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B90D9-D824-4F8A-8266-BA5832579DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="360" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발일정표" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>단계</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>메뉴별 디자인</t>
-  </si>
-  <si>
-    <t>페이지별 디자인</t>
   </si>
   <si>
     <t>프로그램</t>
@@ -198,10 +195,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>화면구조(UI)/스토리보드 설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 진행상황 중간보고</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -218,10 +211,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>팀원1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>전체</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -230,102 +219,78 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>팀원2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>전체</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>전체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 팀원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션 성능 테스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정화작업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 완료보고서 및 배포파일제출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 결과서 제출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 결과 보고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료보고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공식 오픈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스팅 런칭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자 단위 테스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>팀장</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>팀장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>체크리스트 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 팀원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플리케이션 성능 테스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>안정화작업</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 완료보고서 및 배포파일제출</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 결과서 제출</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 결과 보고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료보고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공식 오픈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오픈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>호스팅 런칭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발자 단위 테스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 팀원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13W</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14W</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>팀원</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -347,6 +312,38 @@
   </si>
   <si>
     <t>개발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 1차(화면 구조 UI, 로그인, 회원가입)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주현종</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전우성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리보드 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건승</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 정의서 상세 작성(해당항목 완료시 추가)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 2차(나머지 페이지 우선순위별 작업)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1074,7 +1071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,6 +1279,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,65 +1369,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1804,13 +1804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:DB32"/>
+  <dimension ref="B2:DB35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1818,7 +1818,7 @@
     <col min="1" max="1" width="2.875" style="44" customWidth="1"/>
     <col min="2" max="2" width="6" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="32" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="45" customWidth="1"/>
     <col min="6" max="7" width="9.25" style="45" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="45" customWidth="1"/>
@@ -1828,7 +1828,7 @@
   <sheetData>
     <row r="2" spans="2:106" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="47">
         <v>45313</v>
@@ -1838,136 +1838,136 @@
       <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95" t="s">
+      <c r="C3" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="74" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="92"/>
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="92"/>
+      <c r="AS3" s="92"/>
+      <c r="AT3" s="92"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="92"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="92"/>
+      <c r="AY3" s="92"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="92"/>
+      <c r="BB3" s="92"/>
+      <c r="BC3" s="92"/>
+      <c r="BD3" s="92"/>
+      <c r="BE3" s="92"/>
+      <c r="BF3" s="92"/>
+      <c r="BG3" s="92"/>
+      <c r="BH3" s="92"/>
+      <c r="BI3" s="92"/>
+      <c r="BJ3" s="92"/>
+      <c r="BK3" s="92"/>
+      <c r="BL3" s="95"/>
+      <c r="BM3" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="72"/>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="72"/>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="72"/>
-      <c r="BX3" s="72"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="72"/>
-      <c r="CB3" s="72"/>
-      <c r="CC3" s="72"/>
-      <c r="CD3" s="72"/>
-      <c r="CE3" s="72"/>
-      <c r="CF3" s="72"/>
-      <c r="CG3" s="72"/>
-      <c r="CH3" s="72"/>
-      <c r="CI3" s="72"/>
-      <c r="CJ3" s="72"/>
-      <c r="CK3" s="72"/>
-      <c r="CL3" s="72"/>
-      <c r="CM3" s="72"/>
-      <c r="CN3" s="72"/>
-      <c r="CO3" s="72"/>
-      <c r="CP3" s="72"/>
-      <c r="CQ3" s="72"/>
-      <c r="CR3" s="72"/>
-      <c r="CS3" s="72"/>
-      <c r="CT3" s="72"/>
-      <c r="CU3" s="72"/>
-      <c r="CV3" s="72"/>
-      <c r="CW3" s="72"/>
-      <c r="CX3" s="72"/>
-      <c r="CY3" s="72"/>
-      <c r="CZ3" s="72"/>
-      <c r="DA3" s="72"/>
-      <c r="DB3" s="76"/>
+      <c r="BN3" s="92"/>
+      <c r="BO3" s="92"/>
+      <c r="BP3" s="92"/>
+      <c r="BQ3" s="92"/>
+      <c r="BR3" s="92"/>
+      <c r="BS3" s="92"/>
+      <c r="BT3" s="92"/>
+      <c r="BU3" s="92"/>
+      <c r="BV3" s="92"/>
+      <c r="BW3" s="92"/>
+      <c r="BX3" s="92"/>
+      <c r="BY3" s="92"/>
+      <c r="BZ3" s="92"/>
+      <c r="CA3" s="92"/>
+      <c r="CB3" s="92"/>
+      <c r="CC3" s="92"/>
+      <c r="CD3" s="92"/>
+      <c r="CE3" s="92"/>
+      <c r="CF3" s="92"/>
+      <c r="CG3" s="92"/>
+      <c r="CH3" s="92"/>
+      <c r="CI3" s="92"/>
+      <c r="CJ3" s="92"/>
+      <c r="CK3" s="92"/>
+      <c r="CL3" s="92"/>
+      <c r="CM3" s="92"/>
+      <c r="CN3" s="92"/>
+      <c r="CO3" s="92"/>
+      <c r="CP3" s="92"/>
+      <c r="CQ3" s="92"/>
+      <c r="CR3" s="92"/>
+      <c r="CS3" s="92"/>
+      <c r="CT3" s="92"/>
+      <c r="CU3" s="92"/>
+      <c r="CV3" s="92"/>
+      <c r="CW3" s="92"/>
+      <c r="CX3" s="92"/>
+      <c r="CY3" s="92"/>
+      <c r="CZ3" s="92"/>
+      <c r="DA3" s="92"/>
+      <c r="DB3" s="96"/>
     </row>
     <row r="4" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="93"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="77" t="s">
-        <v>28</v>
+      <c r="B4" s="83"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="97" t="s">
+        <v>27</v>
       </c>
       <c r="J4" s="67"/>
       <c r="K4" s="67"/>
@@ -1976,7 +1976,7 @@
       <c r="N4" s="67"/>
       <c r="O4" s="67"/>
       <c r="P4" s="67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="67"/>
       <c r="R4" s="67"/>
@@ -1985,7 +1985,7 @@
       <c r="U4" s="67"/>
       <c r="V4" s="67"/>
       <c r="W4" s="67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X4" s="67"/>
       <c r="Y4" s="67"/>
@@ -1994,16 +1994,16 @@
       <c r="AB4" s="67"/>
       <c r="AC4" s="67"/>
       <c r="AD4" s="67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE4" s="67"/>
       <c r="AF4" s="67"/>
       <c r="AG4" s="67"/>
       <c r="AH4" s="67"/>
       <c r="AI4" s="67"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="70" t="s">
-        <v>32</v>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="90" t="s">
+        <v>31</v>
       </c>
       <c r="AL4" s="67"/>
       <c r="AM4" s="67"/>
@@ -2012,7 +2012,7 @@
       <c r="AP4" s="67"/>
       <c r="AQ4" s="67"/>
       <c r="AR4" s="67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AS4" s="67"/>
       <c r="AT4" s="67"/>
@@ -2021,7 +2021,7 @@
       <c r="AW4" s="67"/>
       <c r="AX4" s="67"/>
       <c r="AY4" s="67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AZ4" s="67"/>
       <c r="BA4" s="67"/>
@@ -2030,16 +2030,16 @@
       <c r="BD4" s="67"/>
       <c r="BE4" s="67"/>
       <c r="BF4" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BG4" s="67"/>
       <c r="BH4" s="67"/>
       <c r="BI4" s="67"/>
       <c r="BJ4" s="67"/>
       <c r="BK4" s="67"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="70" t="s">
-        <v>38</v>
+      <c r="BL4" s="89"/>
+      <c r="BM4" s="90" t="s">
+        <v>37</v>
       </c>
       <c r="BN4" s="67"/>
       <c r="BO4" s="67"/>
@@ -2048,7 +2048,7 @@
       <c r="BR4" s="67"/>
       <c r="BS4" s="67"/>
       <c r="BT4" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BU4" s="67"/>
       <c r="BV4" s="67"/>
@@ -2057,7 +2057,7 @@
       <c r="BY4" s="67"/>
       <c r="BZ4" s="67"/>
       <c r="CA4" s="67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CB4" s="67"/>
       <c r="CC4" s="67"/>
@@ -2066,7 +2066,7 @@
       <c r="CF4" s="67"/>
       <c r="CG4" s="67"/>
       <c r="CH4" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CI4" s="67"/>
       <c r="CJ4" s="67"/>
@@ -2075,7 +2075,7 @@
       <c r="CM4" s="67"/>
       <c r="CN4" s="68"/>
       <c r="CO4" s="67" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="CP4" s="67"/>
       <c r="CQ4" s="67"/>
@@ -2084,7 +2084,7 @@
       <c r="CT4" s="67"/>
       <c r="CU4" s="68"/>
       <c r="CV4" s="67" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="CW4" s="67"/>
       <c r="CX4" s="67"/>
@@ -2094,13 +2094,13 @@
       <c r="DB4" s="68"/>
     </row>
     <row r="5" spans="2:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="93"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="26">
         <f>I6</f>
         <v>45313</v>
@@ -2495,10 +2495,10 @@
       </c>
     </row>
     <row r="6" spans="2:106" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="94"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="48" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="27">
         <f>C2</f>
@@ -2902,7 +2902,7 @@
       </c>
     </row>
     <row r="7" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="88" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="32" t="s">
@@ -3022,7 +3022,7 @@
       <c r="DB7" s="20"/>
     </row>
     <row r="8" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="36" t="s">
         <v>6</v>
       </c>
@@ -3030,17 +3030,17 @@
         <v>7</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" s="34">
         <v>45313</v>
       </c>
       <c r="G8" s="34">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="H8" s="38">
-        <f t="shared" ref="H8:H23" si="16">NETWORKDAYS(F8,G8)</f>
-        <v>3</v>
+        <f t="shared" ref="H8:H35" si="16">NETWORKDAYS(F8,G8)</f>
+        <v>2</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="1"/>
@@ -3142,7 +3142,7 @@
       <c r="DB8" s="2"/>
     </row>
     <row r="9" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="36" t="s">
         <v>8</v>
       </c>
@@ -3150,17 +3150,17 @@
         <v>9</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F9" s="34">
         <v>45313</v>
       </c>
       <c r="G9" s="34">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="H9" s="38">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="1"/>
@@ -3262,23 +3262,23 @@
       <c r="DB9" s="2"/>
     </row>
     <row r="10" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="80"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F10" s="34">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="G10" s="34">
         <v>45315</v>
       </c>
       <c r="H10" s="38">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="1"/>
@@ -3380,7 +3380,7 @@
       <c r="DB10" s="2"/>
     </row>
     <row r="11" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="80"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F11" s="34">
         <v>45315</v>
@@ -3504,13 +3504,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F12" s="34">
         <v>45315</v>
@@ -3622,25 +3622,25 @@
       <c r="DB12" s="2"/>
     </row>
     <row r="13" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="69" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F13" s="34">
-        <v>45316</v>
+        <v>45315</v>
       </c>
       <c r="G13" s="34">
-        <v>45322</v>
+        <v>45315</v>
       </c>
       <c r="H13" s="58">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="1"/>
@@ -3742,23 +3742,23 @@
       <c r="DB13" s="2"/>
     </row>
     <row r="14" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>56</v>
+      <c r="B14" s="88"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="F14" s="34">
         <v>45316</v>
       </c>
       <c r="G14" s="34">
-        <v>45322</v>
-      </c>
-      <c r="H14" s="38">
+        <v>45316</v>
+      </c>
+      <c r="H14" s="35">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="1"/>
@@ -3860,23 +3860,23 @@
       <c r="DB14" s="2"/>
     </row>
     <row r="15" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="80"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>56</v>
+      <c r="B15" s="88"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="F15" s="34">
-        <v>45316</v>
+        <v>45315</v>
       </c>
       <c r="G15" s="34">
-        <v>45322</v>
-      </c>
-      <c r="H15" s="38">
+        <v>45317</v>
+      </c>
+      <c r="H15" s="35">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="1"/>
@@ -3978,23 +3978,23 @@
       <c r="DB15" s="2"/>
     </row>
     <row r="16" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="80"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>56</v>
+      <c r="B16" s="88"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="F16" s="34">
-        <v>45316</v>
+        <v>45314</v>
       </c>
       <c r="G16" s="34">
-        <v>45322</v>
-      </c>
-      <c r="H16" s="38">
+        <v>45324</v>
+      </c>
+      <c r="H16" s="35">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="1"/>
@@ -4096,25 +4096,23 @@
       <c r="DB16" s="2"/>
     </row>
     <row r="17" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81"/>
-      <c r="C17" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>77</v>
+      <c r="B17" s="70"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>82</v>
       </c>
       <c r="F17" s="34">
-        <v>45329</v>
+        <v>45316</v>
       </c>
       <c r="G17" s="34">
-        <v>45329</v>
-      </c>
-      <c r="H17" s="61">
+        <v>45317</v>
+      </c>
+      <c r="H17" s="38">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="1"/>
@@ -4216,27 +4214,23 @@
       <c r="DB17" s="2"/>
     </row>
     <row r="18" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="57">
-        <v>45323</v>
-      </c>
-      <c r="G18" s="57">
-        <v>45343</v>
-      </c>
-      <c r="H18" s="58">
+      <c r="B18" s="70"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="34">
+        <v>45320</v>
+      </c>
+      <c r="G18" s="34">
+        <v>45322</v>
+      </c>
+      <c r="H18" s="38">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="1"/>
@@ -4338,25 +4332,23 @@
       <c r="DB18" s="2"/>
     </row>
     <row r="19" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="36" t="s">
-        <v>19</v>
-      </c>
+      <c r="B19" s="70"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="36" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="57">
-        <v>45323</v>
-      </c>
-      <c r="G19" s="57">
-        <v>45343</v>
+        <v>53</v>
+      </c>
+      <c r="F19" s="34">
+        <v>45320</v>
+      </c>
+      <c r="G19" s="34">
+        <v>45322</v>
       </c>
       <c r="H19" s="38">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="1"/>
@@ -4458,23 +4450,25 @@
       <c r="DB19" s="2"/>
     </row>
     <row r="20" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="57">
-        <v>45323</v>
-      </c>
-      <c r="G20" s="57">
-        <v>45343</v>
-      </c>
-      <c r="H20" s="38">
+      <c r="B20" s="71"/>
+      <c r="C20" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="34">
+        <v>45329</v>
+      </c>
+      <c r="G20" s="34">
+        <v>45329</v>
+      </c>
+      <c r="H20" s="61">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="1"/>
@@ -4576,23 +4570,27 @@
       <c r="DB20" s="2"/>
     </row>
     <row r="21" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>58</v>
+      <c r="B21" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="F21" s="57">
-        <v>45323</v>
+        <v>45320</v>
       </c>
       <c r="G21" s="57">
-        <v>45343</v>
-      </c>
-      <c r="H21" s="38">
+        <v>45329</v>
+      </c>
+      <c r="H21" s="58">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="1"/>
@@ -4694,13 +4692,15 @@
       <c r="DB21" s="2"/>
     </row>
     <row r="22" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="81"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59" t="s">
+      <c r="B22" s="70"/>
+      <c r="C22" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>54</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>59</v>
       </c>
       <c r="F22" s="57">
         <v>45323</v>
@@ -4708,7 +4708,7 @@
       <c r="G22" s="57">
         <v>45343</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="38">
         <f t="shared" si="16"/>
         <v>15</v>
       </c>
@@ -4812,27 +4812,23 @@
       <c r="DB22" s="2"/>
     </row>
     <row r="23" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>65</v>
+      <c r="B23" s="70"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>82</v>
       </c>
       <c r="F23" s="57">
-        <v>45344</v>
+        <v>45323</v>
       </c>
       <c r="G23" s="57">
-        <v>45344</v>
-      </c>
-      <c r="H23" s="58">
+        <v>45343</v>
+      </c>
+      <c r="H23" s="38">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="1"/>
@@ -4934,25 +4930,23 @@
       <c r="DB23" s="2"/>
     </row>
     <row r="24" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="36" t="s">
-        <v>23</v>
-      </c>
+      <c r="B24" s="70"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="36" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F24" s="57">
-        <v>45344</v>
+        <v>45330</v>
       </c>
       <c r="G24" s="57">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="H24" s="38">
-        <f t="shared" ref="H24:H32" si="17">NETWORKDAYS(F24,G24)</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="1"/>
@@ -5054,23 +5048,23 @@
       <c r="DB24" s="2"/>
     </row>
     <row r="25" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>63</v>
+      <c r="B25" s="71"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>84</v>
       </c>
       <c r="F25" s="57">
-        <v>45344</v>
+        <v>45323</v>
       </c>
       <c r="G25" s="57">
-        <v>45344</v>
-      </c>
-      <c r="H25" s="38">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <v>45343</v>
+      </c>
+      <c r="H25" s="61">
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="1"/>
@@ -5172,15 +5166,17 @@
       <c r="DB25" s="2"/>
     </row>
     <row r="26" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="81"/>
-      <c r="C26" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>65</v>
+      <c r="B26" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>58</v>
       </c>
       <c r="F26" s="57">
         <v>45344</v>
@@ -5188,8 +5184,8 @@
       <c r="G26" s="57">
         <v>45344</v>
       </c>
-      <c r="H26" s="61">
-        <f t="shared" si="17"/>
+      <c r="H26" s="58">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I26" s="29"/>
@@ -5292,17 +5288,15 @@
       <c r="DB26" s="2"/>
     </row>
     <row r="27" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>56</v>
+      <c r="B27" s="70"/>
+      <c r="C27" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="F27" s="57">
         <v>45344</v>
@@ -5310,8 +5304,8 @@
       <c r="G27" s="57">
         <v>45344</v>
       </c>
-      <c r="H27" s="58">
-        <f t="shared" si="17"/>
+      <c r="H27" s="38">
+        <f t="shared" ref="H27:H35" si="17">NETWORKDAYS(F27,G27)</f>
         <v>1</v>
       </c>
       <c r="I27" s="29"/>
@@ -5414,13 +5408,13 @@
       <c r="DB27" s="2"/>
     </row>
     <row r="28" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="80"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F28" s="57">
         <v>45344</v>
@@ -5532,23 +5526,23 @@
       <c r="DB28" s="2"/>
     </row>
     <row r="29" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="80"/>
-      <c r="C29" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="39" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="37">
-        <v>45345</v>
-      </c>
-      <c r="G29" s="37">
-        <v>45345</v>
-      </c>
-      <c r="H29" s="38">
+      <c r="D29" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="57">
+        <v>45344</v>
+      </c>
+      <c r="G29" s="57">
+        <v>45344</v>
+      </c>
+      <c r="H29" s="61">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
@@ -5652,23 +5646,25 @@
       <c r="DB29" s="2"/>
     </row>
     <row r="30" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="80"/>
-      <c r="C30" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="37">
-        <v>45345</v>
-      </c>
-      <c r="G30" s="37">
-        <v>45345</v>
-      </c>
-      <c r="H30" s="38">
+      <c r="B30" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="57">
+        <v>45344</v>
+      </c>
+      <c r="G30" s="57">
+        <v>45344</v>
+      </c>
+      <c r="H30" s="58">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
@@ -5772,15 +5768,23 @@
       <c r="DB30" s="2"/>
     </row>
     <row r="31" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="80"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
+      <c r="D31" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="57">
+        <v>45344</v>
+      </c>
+      <c r="G31" s="57">
+        <v>45344</v>
+      </c>
       <c r="H31" s="38">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="29"/>
       <c r="J31" s="1"/>
@@ -5881,128 +5885,468 @@
       <c r="DA31" s="1"/>
       <c r="DB31" s="2"/>
     </row>
-    <row r="32" spans="2:106" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="82"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43">
+    <row r="32" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="70"/>
+      <c r="C32" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="37">
+        <v>45345</v>
+      </c>
+      <c r="G32" s="37">
+        <v>45345</v>
+      </c>
+      <c r="H32" s="38">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="14"/>
+      <c r="BM32" s="11"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="CJ32" s="1"/>
+      <c r="CK32" s="1"/>
+      <c r="CL32" s="1"/>
+      <c r="CM32" s="1"/>
+      <c r="CN32" s="2"/>
+      <c r="CO32" s="1"/>
+      <c r="CP32" s="1"/>
+      <c r="CQ32" s="1"/>
+      <c r="CR32" s="1"/>
+      <c r="CS32" s="1"/>
+      <c r="CT32" s="1"/>
+      <c r="CU32" s="2"/>
+      <c r="CV32" s="1"/>
+      <c r="CW32" s="1"/>
+      <c r="CX32" s="1"/>
+      <c r="CY32" s="1"/>
+      <c r="CZ32" s="1"/>
+      <c r="DA32" s="1"/>
+      <c r="DB32" s="2"/>
+    </row>
+    <row r="33" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="70"/>
+      <c r="C33" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="37">
+        <v>45345</v>
+      </c>
+      <c r="G33" s="37">
+        <v>45345</v>
+      </c>
+      <c r="H33" s="38">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="14"/>
+      <c r="BM33" s="11"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
+      <c r="CN33" s="2"/>
+      <c r="CO33" s="1"/>
+      <c r="CP33" s="1"/>
+      <c r="CQ33" s="1"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="1"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="2"/>
+      <c r="CV33" s="1"/>
+      <c r="CW33" s="1"/>
+      <c r="CX33" s="1"/>
+      <c r="CY33" s="1"/>
+      <c r="CZ33" s="1"/>
+      <c r="DA33" s="1"/>
+      <c r="DB33" s="2"/>
+    </row>
+    <row r="34" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="70"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="12"/>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
-      <c r="AU32" s="3"/>
-      <c r="AV32" s="3"/>
-      <c r="AW32" s="3"/>
-      <c r="AX32" s="3"/>
-      <c r="AY32" s="3"/>
-      <c r="AZ32" s="3"/>
-      <c r="BA32" s="3"/>
-      <c r="BB32" s="3"/>
-      <c r="BC32" s="3"/>
-      <c r="BD32" s="3"/>
-      <c r="BE32" s="3"/>
-      <c r="BF32" s="3"/>
-      <c r="BG32" s="3"/>
-      <c r="BH32" s="3"/>
-      <c r="BI32" s="3"/>
-      <c r="BJ32" s="3"/>
-      <c r="BK32" s="3"/>
-      <c r="BL32" s="15"/>
-      <c r="BM32" s="12"/>
-      <c r="BN32" s="3"/>
-      <c r="BO32" s="3"/>
-      <c r="BP32" s="3"/>
-      <c r="BQ32" s="3"/>
-      <c r="BR32" s="3"/>
-      <c r="BS32" s="3"/>
-      <c r="BT32" s="3"/>
-      <c r="BU32" s="3"/>
-      <c r="BV32" s="3"/>
-      <c r="BW32" s="3"/>
-      <c r="BX32" s="3"/>
-      <c r="BY32" s="3"/>
-      <c r="BZ32" s="3"/>
-      <c r="CA32" s="3"/>
-      <c r="CB32" s="3"/>
-      <c r="CC32" s="3"/>
-      <c r="CD32" s="3"/>
-      <c r="CE32" s="3"/>
-      <c r="CF32" s="3"/>
-      <c r="CG32" s="3"/>
-      <c r="CH32" s="3"/>
-      <c r="CI32" s="3"/>
-      <c r="CJ32" s="3"/>
-      <c r="CK32" s="3"/>
-      <c r="CL32" s="3"/>
-      <c r="CM32" s="3"/>
-      <c r="CN32" s="4"/>
-      <c r="CO32" s="3"/>
-      <c r="CP32" s="3"/>
-      <c r="CQ32" s="3"/>
-      <c r="CR32" s="3"/>
-      <c r="CS32" s="3"/>
-      <c r="CT32" s="3"/>
-      <c r="CU32" s="4"/>
-      <c r="CV32" s="3"/>
-      <c r="CW32" s="3"/>
-      <c r="CX32" s="3"/>
-      <c r="CY32" s="3"/>
-      <c r="CZ32" s="3"/>
-      <c r="DA32" s="3"/>
-      <c r="DB32" s="4"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="14"/>
+      <c r="BM34" s="11"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="2"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="2"/>
+      <c r="CV34" s="1"/>
+      <c r="CW34" s="1"/>
+      <c r="CX34" s="1"/>
+      <c r="CY34" s="1"/>
+      <c r="CZ34" s="1"/>
+      <c r="DA34" s="1"/>
+      <c r="DB34" s="2"/>
+    </row>
+    <row r="35" spans="2:106" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="72"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+      <c r="BE35" s="3"/>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3"/>
+      <c r="BJ35" s="3"/>
+      <c r="BK35" s="3"/>
+      <c r="BL35" s="15"/>
+      <c r="BM35" s="12"/>
+      <c r="BN35" s="3"/>
+      <c r="BO35" s="3"/>
+      <c r="BP35" s="3"/>
+      <c r="BQ35" s="3"/>
+      <c r="BR35" s="3"/>
+      <c r="BS35" s="3"/>
+      <c r="BT35" s="3"/>
+      <c r="BU35" s="3"/>
+      <c r="BV35" s="3"/>
+      <c r="BW35" s="3"/>
+      <c r="BX35" s="3"/>
+      <c r="BY35" s="3"/>
+      <c r="BZ35" s="3"/>
+      <c r="CA35" s="3"/>
+      <c r="CB35" s="3"/>
+      <c r="CC35" s="3"/>
+      <c r="CD35" s="3"/>
+      <c r="CE35" s="3"/>
+      <c r="CF35" s="3"/>
+      <c r="CG35" s="3"/>
+      <c r="CH35" s="3"/>
+      <c r="CI35" s="3"/>
+      <c r="CJ35" s="3"/>
+      <c r="CK35" s="3"/>
+      <c r="CL35" s="3"/>
+      <c r="CM35" s="3"/>
+      <c r="CN35" s="4"/>
+      <c r="CO35" s="3"/>
+      <c r="CP35" s="3"/>
+      <c r="CQ35" s="3"/>
+      <c r="CR35" s="3"/>
+      <c r="CS35" s="3"/>
+      <c r="CT35" s="3"/>
+      <c r="CU35" s="4"/>
+      <c r="CV35" s="3"/>
+      <c r="CW35" s="3"/>
+      <c r="CX35" s="3"/>
+      <c r="CY35" s="3"/>
+      <c r="CZ35" s="3"/>
+      <c r="DA35" s="3"/>
+      <c r="DB35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="F3:H5"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="B7:B11"/>
     <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="BM4:BS4"/>
@@ -6019,9 +6363,19 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="F3:H5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I7:CG32 CV7:DB32">
+  <conditionalFormatting sqref="I7:CG35 CV7:DB35">
     <cfRule type="expression" dxfId="11" priority="25" stopIfTrue="1">
       <formula>IF(I$6=$G7,1,2)=1</formula>
     </cfRule>
@@ -6029,7 +6383,7 @@
       <formula>(IF((I$6&lt;=$G7),(IF((I$6&gt;=$F7),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:CG32 CV5:DB32">
+  <conditionalFormatting sqref="I5:CG35 CV5:DB35">
     <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>IF(WEEKDAY(I$6)=7,1,2)=1</formula>
     </cfRule>
@@ -6037,7 +6391,7 @@
       <formula>IF(WEEKDAY(I$6)=1,1,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH7:CN32">
+  <conditionalFormatting sqref="CH7:CN35">
     <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>IF(CH$6=$G7,1,2)=1</formula>
     </cfRule>
@@ -6045,7 +6399,7 @@
       <formula>(IF((CH$6&lt;=$G7),(IF((CH$6&gt;=$F7),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH5:CN32">
+  <conditionalFormatting sqref="CH5:CN35">
     <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>IF(WEEKDAY(CH$6)=7,1,2)=1</formula>
     </cfRule>
@@ -6053,7 +6407,7 @@
       <formula>IF(WEEKDAY(CH$6)=1,1,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO7:CU32">
+  <conditionalFormatting sqref="CO7:CU35">
     <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>IF(CO$6=$G7,1,2)=1</formula>
     </cfRule>
@@ -6061,7 +6415,7 @@
       <formula>(IF((CO$6&lt;=$G7),(IF((CO$6&gt;=$F7),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO5:CU32">
+  <conditionalFormatting sqref="CO5:CU35">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>IF(WEEKDAY(CO$6)=7,1,2)=1</formula>
     </cfRule>
@@ -6091,7 +6445,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -6099,7 +6453,7 @@
     </row>
     <row r="3" spans="2:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -6107,7 +6461,7 @@
     </row>
     <row r="4" spans="2:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
@@ -6137,7 +6491,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -6145,7 +6499,7 @@
     </row>
     <row r="3" spans="2:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -6153,7 +6507,7 @@
     </row>
     <row r="4" spans="2:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>

--- a/Documents/0. 일정표/프로젝트 일정표.xlsx
+++ b/Documents/0. 일정표/프로젝트 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\0. 일정표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B90D9-D824-4F8A-8266-BA5832579DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B862B132-607A-4358-9376-588235CA8471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="360" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1335" windowWidth="22260" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발일정표" sheetId="1" r:id="rId1"/>
@@ -1273,12 +1273,45 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,6 +1324,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1335,42 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1810,7 +1810,7 @@
       <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1838,269 +1838,269 @@
       <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="91" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="94" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="92"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92"/>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="92"/>
-      <c r="AS3" s="92"/>
-      <c r="AT3" s="92"/>
-      <c r="AU3" s="92"/>
-      <c r="AV3" s="92"/>
-      <c r="AW3" s="92"/>
-      <c r="AX3" s="92"/>
-      <c r="AY3" s="92"/>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="92"/>
-      <c r="BB3" s="92"/>
-      <c r="BC3" s="92"/>
-      <c r="BD3" s="92"/>
-      <c r="BE3" s="92"/>
-      <c r="BF3" s="92"/>
-      <c r="BG3" s="92"/>
-      <c r="BH3" s="92"/>
-      <c r="BI3" s="92"/>
-      <c r="BJ3" s="92"/>
-      <c r="BK3" s="92"/>
-      <c r="BL3" s="95"/>
-      <c r="BM3" s="94" t="s">
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="BN3" s="92"/>
-      <c r="BO3" s="92"/>
-      <c r="BP3" s="92"/>
-      <c r="BQ3" s="92"/>
-      <c r="BR3" s="92"/>
-      <c r="BS3" s="92"/>
-      <c r="BT3" s="92"/>
-      <c r="BU3" s="92"/>
-      <c r="BV3" s="92"/>
-      <c r="BW3" s="92"/>
-      <c r="BX3" s="92"/>
-      <c r="BY3" s="92"/>
-      <c r="BZ3" s="92"/>
-      <c r="CA3" s="92"/>
-      <c r="CB3" s="92"/>
-      <c r="CC3" s="92"/>
-      <c r="CD3" s="92"/>
-      <c r="CE3" s="92"/>
-      <c r="CF3" s="92"/>
-      <c r="CG3" s="92"/>
-      <c r="CH3" s="92"/>
-      <c r="CI3" s="92"/>
-      <c r="CJ3" s="92"/>
-      <c r="CK3" s="92"/>
-      <c r="CL3" s="92"/>
-      <c r="CM3" s="92"/>
-      <c r="CN3" s="92"/>
-      <c r="CO3" s="92"/>
-      <c r="CP3" s="92"/>
-      <c r="CQ3" s="92"/>
-      <c r="CR3" s="92"/>
-      <c r="CS3" s="92"/>
-      <c r="CT3" s="92"/>
-      <c r="CU3" s="92"/>
-      <c r="CV3" s="92"/>
-      <c r="CW3" s="92"/>
-      <c r="CX3" s="92"/>
-      <c r="CY3" s="92"/>
-      <c r="CZ3" s="92"/>
-      <c r="DA3" s="92"/>
-      <c r="DB3" s="96"/>
+      <c r="BN3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
+      <c r="BS3" s="73"/>
+      <c r="BT3" s="73"/>
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="73"/>
+      <c r="BW3" s="73"/>
+      <c r="BX3" s="73"/>
+      <c r="BY3" s="73"/>
+      <c r="BZ3" s="73"/>
+      <c r="CA3" s="73"/>
+      <c r="CB3" s="73"/>
+      <c r="CC3" s="73"/>
+      <c r="CD3" s="73"/>
+      <c r="CE3" s="73"/>
+      <c r="CF3" s="73"/>
+      <c r="CG3" s="73"/>
+      <c r="CH3" s="73"/>
+      <c r="CI3" s="73"/>
+      <c r="CJ3" s="73"/>
+      <c r="CK3" s="73"/>
+      <c r="CL3" s="73"/>
+      <c r="CM3" s="73"/>
+      <c r="CN3" s="73"/>
+      <c r="CO3" s="73"/>
+      <c r="CP3" s="73"/>
+      <c r="CQ3" s="73"/>
+      <c r="CR3" s="73"/>
+      <c r="CS3" s="73"/>
+      <c r="CT3" s="73"/>
+      <c r="CU3" s="73"/>
+      <c r="CV3" s="73"/>
+      <c r="CW3" s="73"/>
+      <c r="CX3" s="73"/>
+      <c r="CY3" s="73"/>
+      <c r="CZ3" s="73"/>
+      <c r="DA3" s="73"/>
+      <c r="DB3" s="77"/>
     </row>
     <row r="4" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="97" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67" t="s">
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67" t="s">
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="90" t="s">
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67" t="s">
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67" t="s">
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="68"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="67"/>
-      <c r="BD4" s="67"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="67" t="s">
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="BG4" s="67"/>
-      <c r="BH4" s="67"/>
-      <c r="BI4" s="67"/>
-      <c r="BJ4" s="67"/>
-      <c r="BK4" s="67"/>
-      <c r="BL4" s="89"/>
-      <c r="BM4" s="90" t="s">
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="68"/>
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="70"/>
+      <c r="BM4" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="BN4" s="67"/>
-      <c r="BO4" s="67"/>
-      <c r="BP4" s="67"/>
-      <c r="BQ4" s="67"/>
-      <c r="BR4" s="67"/>
-      <c r="BS4" s="67"/>
-      <c r="BT4" s="67" t="s">
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="68"/>
+      <c r="BT4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="BU4" s="67"/>
-      <c r="BV4" s="67"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="67"/>
-      <c r="BY4" s="67"/>
-      <c r="BZ4" s="67"/>
-      <c r="CA4" s="67" t="s">
+      <c r="BU4" s="68"/>
+      <c r="BV4" s="68"/>
+      <c r="BW4" s="68"/>
+      <c r="BX4" s="68"/>
+      <c r="BY4" s="68"/>
+      <c r="BZ4" s="68"/>
+      <c r="CA4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="CB4" s="67"/>
-      <c r="CC4" s="67"/>
-      <c r="CD4" s="67"/>
-      <c r="CE4" s="67"/>
-      <c r="CF4" s="67"/>
-      <c r="CG4" s="67"/>
-      <c r="CH4" s="67" t="s">
+      <c r="CB4" s="68"/>
+      <c r="CC4" s="68"/>
+      <c r="CD4" s="68"/>
+      <c r="CE4" s="68"/>
+      <c r="CF4" s="68"/>
+      <c r="CG4" s="68"/>
+      <c r="CH4" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="CI4" s="67"/>
-      <c r="CJ4" s="67"/>
-      <c r="CK4" s="67"/>
-      <c r="CL4" s="67"/>
-      <c r="CM4" s="67"/>
-      <c r="CN4" s="68"/>
-      <c r="CO4" s="67" t="s">
+      <c r="CI4" s="68"/>
+      <c r="CJ4" s="68"/>
+      <c r="CK4" s="68"/>
+      <c r="CL4" s="68"/>
+      <c r="CM4" s="68"/>
+      <c r="CN4" s="69"/>
+      <c r="CO4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="CP4" s="67"/>
-      <c r="CQ4" s="67"/>
-      <c r="CR4" s="67"/>
-      <c r="CS4" s="67"/>
-      <c r="CT4" s="67"/>
-      <c r="CU4" s="68"/>
-      <c r="CV4" s="67" t="s">
+      <c r="CP4" s="68"/>
+      <c r="CQ4" s="68"/>
+      <c r="CR4" s="68"/>
+      <c r="CS4" s="68"/>
+      <c r="CT4" s="68"/>
+      <c r="CU4" s="69"/>
+      <c r="CV4" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="CW4" s="67"/>
-      <c r="CX4" s="67"/>
-      <c r="CY4" s="67"/>
-      <c r="CZ4" s="67"/>
-      <c r="DA4" s="67"/>
-      <c r="DB4" s="68"/>
+      <c r="CW4" s="68"/>
+      <c r="CX4" s="68"/>
+      <c r="CY4" s="68"/>
+      <c r="CZ4" s="68"/>
+      <c r="DA4" s="68"/>
+      <c r="DB4" s="69"/>
     </row>
     <row r="5" spans="2:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="26">
         <f>I6</f>
         <v>45313</v>
@@ -2495,10 +2495,10 @@
       </c>
     </row>
     <row r="6" spans="2:106" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="84"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
       <c r="F6" s="48" t="s">
         <v>1</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
     </row>
     <row r="7" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="84" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="32" t="s">
@@ -3022,7 +3022,7 @@
       <c r="DB7" s="20"/>
     </row>
     <row r="8" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="70"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="36" t="s">
         <v>6</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>45314</v>
       </c>
       <c r="H8" s="38">
-        <f t="shared" ref="H8:H35" si="16">NETWORKDAYS(F8,G8)</f>
+        <f t="shared" ref="H8:H26" si="16">NETWORKDAYS(F8,G8)</f>
         <v>2</v>
       </c>
       <c r="I8" s="29"/>
@@ -3142,7 +3142,7 @@
       <c r="DB8" s="2"/>
     </row>
     <row r="9" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="70"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="36" t="s">
         <v>8</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="DB9" s="2"/>
     </row>
     <row r="10" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="70"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36" t="s">
         <v>11</v>
@@ -3380,7 +3380,7 @@
       <c r="DB10" s="2"/>
     </row>
     <row r="11" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="70"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="DB12" s="2"/>
     </row>
     <row r="13" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="80" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="55"/>
@@ -3742,9 +3742,9 @@
       <c r="DB13" s="2"/>
     </row>
     <row r="14" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="88"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="67" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3860,9 +3860,9 @@
       <c r="DB14" s="2"/>
     </row>
     <row r="15" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="88"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="33" t="s">
@@ -3978,9 +3978,9 @@
       <c r="DB15" s="2"/>
     </row>
     <row r="16" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="67" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="33" t="s">
@@ -4096,7 +4096,7 @@
       <c r="DB16" s="2"/>
     </row>
     <row r="17" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="70"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="36"/>
       <c r="D17" s="49" t="s">
         <v>83</v>
@@ -4105,10 +4105,10 @@
         <v>82</v>
       </c>
       <c r="F17" s="34">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="G17" s="34">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="H17" s="38">
         <f t="shared" si="16"/>
@@ -4214,7 +4214,7 @@
       <c r="DB17" s="2"/>
     </row>
     <row r="18" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="70"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36" t="s">
         <v>46</v>
@@ -4332,7 +4332,7 @@
       <c r="DB18" s="2"/>
     </row>
     <row r="19" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="70"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36" t="s">
         <v>47</v>
@@ -4450,7 +4450,7 @@
       <c r="DB19" s="2"/>
     </row>
     <row r="20" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="71"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="65" t="s">
         <v>16</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="DB20" s="2"/>
     </row>
     <row r="21" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="80" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="55" t="s">
@@ -4692,7 +4692,7 @@
       <c r="DB21" s="2"/>
     </row>
     <row r="22" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="70"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="36" t="s">
         <v>18</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="DB22" s="2"/>
     </row>
     <row r="23" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="70"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36" t="s">
         <v>50</v>
@@ -4930,7 +4930,7 @@
       <c r="DB23" s="2"/>
     </row>
     <row r="24" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="70"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36" t="s">
         <v>51</v>
@@ -5048,7 +5048,7 @@
       <c r="DB24" s="2"/>
     </row>
     <row r="25" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="71"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59" t="s">
         <v>52</v>
@@ -5166,7 +5166,7 @@
       <c r="DB25" s="2"/>
     </row>
     <row r="26" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="80" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -5288,7 +5288,7 @@
       <c r="DB26" s="2"/>
     </row>
     <row r="27" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="70"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="36" t="s">
         <v>22</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="DB27" s="2"/>
     </row>
     <row r="28" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="70"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36" t="s">
         <v>59</v>
@@ -5526,7 +5526,7 @@
       <c r="DB28" s="2"/>
     </row>
     <row r="29" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="71"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="59" t="s">
         <v>63</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="DB29" s="2"/>
     </row>
     <row r="30" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="80" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="55" t="s">
@@ -5768,7 +5768,7 @@
       <c r="DB30" s="2"/>
     </row>
     <row r="31" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36" t="s">
         <v>60</v>
@@ -5886,7 +5886,7 @@
       <c r="DB31" s="2"/>
     </row>
     <row r="32" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="70"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="36" t="s">
         <v>65</v>
       </c>
@@ -6006,7 +6006,7 @@
       <c r="DB32" s="2"/>
     </row>
     <row r="33" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="70"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="36" t="s">
         <v>64</v>
       </c>
@@ -6126,7 +6126,7 @@
       <c r="DB33" s="2"/>
     </row>
     <row r="34" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
       <c r="E34" s="39"/>
@@ -6236,7 +6236,7 @@
       <c r="DB34" s="2"/>
     </row>
     <row r="35" spans="2:106" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="72"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
       <c r="E35" s="41"/>
@@ -6347,6 +6347,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="F3:H5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="B7:B11"/>
     <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="BM4:BS4"/>
@@ -6363,16 +6373,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="F3:H5"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I7:CG35 CV7:DB35">

--- a/Documents/0. 일정표/프로젝트 일정표.xlsx
+++ b/Documents/0. 일정표/프로젝트 일정표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\0. 일정표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B862B132-607A-4358-9376-588235CA8471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E079A0-A686-4673-BAD2-399551C5C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1335" windowWidth="22260" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12510" yWindow="660" windowWidth="13815" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발일정표" sheetId="1" r:id="rId1"/>
@@ -1282,6 +1282,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,66 +1370,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1807,10 +1807,10 @@
   <dimension ref="B2:DB35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1838,135 +1838,135 @@
       <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="72" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="75" t="s">
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="76"/>
-      <c r="BM3" s="75" t="s">
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="96"/>
+      <c r="BM3" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="BN3" s="73"/>
-      <c r="BO3" s="73"/>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
-      <c r="BS3" s="73"/>
-      <c r="BT3" s="73"/>
-      <c r="BU3" s="73"/>
-      <c r="BV3" s="73"/>
-      <c r="BW3" s="73"/>
-      <c r="BX3" s="73"/>
-      <c r="BY3" s="73"/>
-      <c r="BZ3" s="73"/>
-      <c r="CA3" s="73"/>
-      <c r="CB3" s="73"/>
-      <c r="CC3" s="73"/>
-      <c r="CD3" s="73"/>
-      <c r="CE3" s="73"/>
-      <c r="CF3" s="73"/>
-      <c r="CG3" s="73"/>
-      <c r="CH3" s="73"/>
-      <c r="CI3" s="73"/>
-      <c r="CJ3" s="73"/>
-      <c r="CK3" s="73"/>
-      <c r="CL3" s="73"/>
-      <c r="CM3" s="73"/>
-      <c r="CN3" s="73"/>
-      <c r="CO3" s="73"/>
-      <c r="CP3" s="73"/>
-      <c r="CQ3" s="73"/>
-      <c r="CR3" s="73"/>
-      <c r="CS3" s="73"/>
-      <c r="CT3" s="73"/>
-      <c r="CU3" s="73"/>
-      <c r="CV3" s="73"/>
-      <c r="CW3" s="73"/>
-      <c r="CX3" s="73"/>
-      <c r="CY3" s="73"/>
-      <c r="CZ3" s="73"/>
-      <c r="DA3" s="73"/>
-      <c r="DB3" s="77"/>
+      <c r="BN3" s="93"/>
+      <c r="BO3" s="93"/>
+      <c r="BP3" s="93"/>
+      <c r="BQ3" s="93"/>
+      <c r="BR3" s="93"/>
+      <c r="BS3" s="93"/>
+      <c r="BT3" s="93"/>
+      <c r="BU3" s="93"/>
+      <c r="BV3" s="93"/>
+      <c r="BW3" s="93"/>
+      <c r="BX3" s="93"/>
+      <c r="BY3" s="93"/>
+      <c r="BZ3" s="93"/>
+      <c r="CA3" s="93"/>
+      <c r="CB3" s="93"/>
+      <c r="CC3" s="93"/>
+      <c r="CD3" s="93"/>
+      <c r="CE3" s="93"/>
+      <c r="CF3" s="93"/>
+      <c r="CG3" s="93"/>
+      <c r="CH3" s="93"/>
+      <c r="CI3" s="93"/>
+      <c r="CJ3" s="93"/>
+      <c r="CK3" s="93"/>
+      <c r="CL3" s="93"/>
+      <c r="CM3" s="93"/>
+      <c r="CN3" s="93"/>
+      <c r="CO3" s="93"/>
+      <c r="CP3" s="93"/>
+      <c r="CQ3" s="93"/>
+      <c r="CR3" s="93"/>
+      <c r="CS3" s="93"/>
+      <c r="CT3" s="93"/>
+      <c r="CU3" s="93"/>
+      <c r="CV3" s="93"/>
+      <c r="CW3" s="93"/>
+      <c r="CX3" s="93"/>
+      <c r="CY3" s="93"/>
+      <c r="CZ3" s="93"/>
+      <c r="DA3" s="93"/>
+      <c r="DB3" s="97"/>
     </row>
     <row r="4" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="95"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="78" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="98" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="68"/>
@@ -2001,8 +2001,8 @@
       <c r="AG4" s="68"/>
       <c r="AH4" s="68"/>
       <c r="AI4" s="68"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="71" t="s">
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="91" t="s">
         <v>31</v>
       </c>
       <c r="AL4" s="68"/>
@@ -2037,8 +2037,8 @@
       <c r="BI4" s="68"/>
       <c r="BJ4" s="68"/>
       <c r="BK4" s="68"/>
-      <c r="BL4" s="70"/>
-      <c r="BM4" s="71" t="s">
+      <c r="BL4" s="90"/>
+      <c r="BM4" s="91" t="s">
         <v>37</v>
       </c>
       <c r="BN4" s="68"/>
@@ -2094,13 +2094,13 @@
       <c r="DB4" s="69"/>
     </row>
     <row r="5" spans="2:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="95"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="26">
         <f>I6</f>
         <v>45313</v>
@@ -2495,10 +2495,10 @@
       </c>
     </row>
     <row r="6" spans="2:106" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="96"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="48" t="s">
         <v>1</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
     </row>
     <row r="7" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="32" t="s">
@@ -3022,7 +3022,7 @@
       <c r="DB7" s="20"/>
     </row>
     <row r="8" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="81"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="36" t="s">
         <v>6</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="DB8" s="2"/>
     </row>
     <row r="9" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="81"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="36" t="s">
         <v>8</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="DB9" s="2"/>
     </row>
     <row r="10" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36" t="s">
         <v>11</v>
@@ -3380,7 +3380,7 @@
       <c r="DB10" s="2"/>
     </row>
     <row r="11" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="81"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="36" t="s">
         <v>12</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="DB12" s="2"/>
     </row>
     <row r="13" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="55"/>
@@ -3742,7 +3742,7 @@
       <c r="DB13" s="2"/>
     </row>
     <row r="14" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="84"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="32"/>
       <c r="D14" s="67" t="s">
         <v>79</v>
@@ -3860,7 +3860,7 @@
       <c r="DB14" s="2"/>
     </row>
     <row r="15" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="84"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="32"/>
       <c r="D15" s="67" t="s">
         <v>80</v>
@@ -3978,7 +3978,7 @@
       <c r="DB15" s="2"/>
     </row>
     <row r="16" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="84"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="32"/>
       <c r="D16" s="67" t="s">
         <v>85</v>
@@ -3990,11 +3990,11 @@
         <v>45314</v>
       </c>
       <c r="G16" s="34">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="H16" s="35">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="1"/>
@@ -4096,7 +4096,7 @@
       <c r="DB16" s="2"/>
     </row>
     <row r="17" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="36"/>
       <c r="D17" s="49" t="s">
         <v>83</v>
@@ -4108,11 +4108,11 @@
         <v>45317</v>
       </c>
       <c r="G17" s="34">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="H17" s="38">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="1"/>
@@ -4214,7 +4214,7 @@
       <c r="DB17" s="2"/>
     </row>
     <row r="18" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="81"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36" t="s">
         <v>46</v>
@@ -4223,10 +4223,10 @@
         <v>53</v>
       </c>
       <c r="F18" s="34">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="G18" s="34">
-        <v>45322</v>
+        <v>45327</v>
       </c>
       <c r="H18" s="38">
         <f t="shared" si="16"/>
@@ -4332,7 +4332,7 @@
       <c r="DB18" s="2"/>
     </row>
     <row r="19" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="81"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36" t="s">
         <v>47</v>
@@ -4341,10 +4341,10 @@
         <v>53</v>
       </c>
       <c r="F19" s="34">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="G19" s="34">
-        <v>45322</v>
+        <v>45327</v>
       </c>
       <c r="H19" s="38">
         <f t="shared" si="16"/>
@@ -4450,7 +4450,7 @@
       <c r="DB19" s="2"/>
     </row>
     <row r="20" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="65" t="s">
         <v>16</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="DB20" s="2"/>
     </row>
     <row r="21" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="70" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="55" t="s">
@@ -4692,7 +4692,7 @@
       <c r="DB21" s="2"/>
     </row>
     <row r="22" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="81"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="36" t="s">
         <v>18</v>
       </c>
@@ -4703,14 +4703,14 @@
         <v>54</v>
       </c>
       <c r="F22" s="57">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="G22" s="57">
         <v>45343</v>
       </c>
       <c r="H22" s="38">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="1"/>
@@ -4812,7 +4812,7 @@
       <c r="DB22" s="2"/>
     </row>
     <row r="23" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="81"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36" t="s">
         <v>50</v>
@@ -4821,14 +4821,14 @@
         <v>82</v>
       </c>
       <c r="F23" s="57">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="G23" s="57">
         <v>45343</v>
       </c>
       <c r="H23" s="38">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="1"/>
@@ -4930,7 +4930,7 @@
       <c r="DB23" s="2"/>
     </row>
     <row r="24" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="81"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36" t="s">
         <v>51</v>
@@ -4939,14 +4939,14 @@
         <v>81</v>
       </c>
       <c r="F24" s="57">
-        <v>45330</v>
+        <v>45328</v>
       </c>
       <c r="G24" s="57">
         <v>45343</v>
       </c>
       <c r="H24" s="38">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="1"/>
@@ -5048,7 +5048,7 @@
       <c r="DB24" s="2"/>
     </row>
     <row r="25" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="82"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59" t="s">
         <v>52</v>
@@ -5057,14 +5057,14 @@
         <v>84</v>
       </c>
       <c r="F25" s="57">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="G25" s="57">
         <v>45343</v>
       </c>
       <c r="H25" s="61">
         <f t="shared" si="16"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="1"/>
@@ -5166,7 +5166,7 @@
       <c r="DB25" s="2"/>
     </row>
     <row r="26" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="70" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="55" t="s">
@@ -5288,7 +5288,7 @@
       <c r="DB26" s="2"/>
     </row>
     <row r="27" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="81"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="36" t="s">
         <v>22</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="DB27" s="2"/>
     </row>
     <row r="28" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="81"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36" t="s">
         <v>59</v>
@@ -5526,7 +5526,7 @@
       <c r="DB28" s="2"/>
     </row>
     <row r="29" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="82"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="59" t="s">
         <v>63</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="DB29" s="2"/>
     </row>
     <row r="30" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="70" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="55" t="s">
@@ -5768,7 +5768,7 @@
       <c r="DB30" s="2"/>
     </row>
     <row r="31" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="81"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36" t="s">
         <v>60</v>
@@ -5886,7 +5886,7 @@
       <c r="DB31" s="2"/>
     </row>
     <row r="32" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="81"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="36" t="s">
         <v>65</v>
       </c>
@@ -6006,7 +6006,7 @@
       <c r="DB32" s="2"/>
     </row>
     <row r="33" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="81"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="36" t="s">
         <v>64</v>
       </c>
@@ -6126,7 +6126,7 @@
       <c r="DB33" s="2"/>
     </row>
     <row r="34" spans="2:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
       <c r="E34" s="39"/>
@@ -6236,7 +6236,7 @@
       <c r="DB34" s="2"/>
     </row>
     <row r="35" spans="2:106" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="83"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
       <c r="E35" s="41"/>
@@ -6347,16 +6347,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="F3:H5"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="B7:B11"/>
     <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="BM4:BS4"/>
@@ -6373,6 +6363,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="F3:H5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I7:CG35 CV7:DB35">
